--- a/misc/runtimes_gpu_cpu.xlsx
+++ b/misc/runtimes_gpu_cpu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simon/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01EABD28-33A0-7D4F-B855-B307913FFC41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F577D7-7742-D049-A407-C3F4776B43F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{4C55FC81-8C12-4F4A-9760-88FEC6125070}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="154">
   <si>
     <t>HDBSCAN FIT CPU</t>
   </si>
@@ -416,9 +416,6 @@
     <t>205.3707s</t>
   </si>
   <si>
-    <t>OBSERVATIONS</t>
-  </si>
-  <si>
     <t>443.3625s</t>
   </si>
   <si>
@@ -477,6 +474,30 @@
   </si>
   <si>
     <t>TIMEOUT</t>
+  </si>
+  <si>
+    <t>OBSERVATIONS N UMAP FIT</t>
+  </si>
+  <si>
+    <t>OBSERVATIONS N UMAP TRANSFORM</t>
+  </si>
+  <si>
+    <t>OBSERVATIONS N HDBSCAN FIT</t>
+  </si>
+  <si>
+    <t>OBSERVATIONS N HDBSCAN TRANSFORM</t>
+  </si>
+  <si>
+    <t>OBSERVATIONS N XGBOOST FIT</t>
+  </si>
+  <si>
+    <t>OBSERVATIONS N XGBOOST TRANSFORM</t>
+  </si>
+  <si>
+    <t>XGBOOST TRANSFORM GPU</t>
+  </si>
+  <si>
+    <t>XGBOOST TRANSFORM CPU</t>
   </si>
 </sst>
 </file>
@@ -875,35 +896,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D54D06F-F00B-8441-A1BD-1663D888247E}">
   <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="161" zoomScaleNormal="161" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="161" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="37.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="25.33203125" style="8" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.83203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.83203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="37.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1">
       <c r="A1" s="2" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
@@ -912,7 +933,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>4</v>
@@ -921,7 +942,7 @@
         <v>31</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>1</v>
@@ -930,7 +951,7 @@
         <v>0</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="K1" s="6" t="s">
         <v>5</v>
@@ -939,7 +960,7 @@
         <v>63</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>99</v>
@@ -948,13 +969,13 @@
         <v>100</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>99</v>
+        <v>152</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>100</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -1007,10 +1028,10 @@
         <v>1</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1063,10 +1084,10 @@
         <v>2</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1119,10 +1140,10 @@
         <v>4</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1175,7 +1196,7 @@
         <v>8</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="R5" s="7">
         <v>6.4000000000000003E-3</v>
@@ -1231,7 +1252,7 @@
         <v>16</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R6" s="7">
         <v>8.0999999999999996E-3</v>
@@ -1287,7 +1308,7 @@
         <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R7" s="7" t="s">
         <v>87</v>
@@ -1343,10 +1364,10 @@
         <v>64</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -1399,10 +1420,10 @@
         <v>128</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="R9" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -1410,7 +1431,7 @@
         <v>256000</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>30</v>
@@ -1455,10 +1476,10 @@
         <v>254</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -1511,10 +1532,10 @@
         <v>512</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="R11" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -1525,7 +1546,7 @@
         <v>15</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D12" s="4">
         <v>1024</v>
@@ -1549,7 +1570,7 @@
         <v>1024</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L12" s="5" t="s">
         <v>97</v>
@@ -1567,7 +1588,7 @@
         <v>1024</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="R12" s="7">
         <v>3.5999999999999999E-3</v>
@@ -1581,7 +1602,7 @@
         <v>16</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D13" s="4">
         <v>2048</v>
@@ -1599,7 +1620,7 @@
         <v>64</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J13" s="4">
         <v>2048</v>
@@ -1623,10 +1644,10 @@
         <v>2048</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="R13" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -1637,7 +1658,7 @@
         <v>113</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P14" s="9"/>
       <c r="Q14" s="10"/>
